--- a/tdrs-frontend/cypress/fixtures/2021-Q1-Active Case Data Error Report.xlsx
+++ b/tdrs-frontend/cypress/fixtures/2021-Q1-Active Case Data Error Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="95">
   <si>
     <t>Please refer to the most recent versions of the coding instructions (linked below) when looking up items and allowable values during the data revision process</t>
   </si>
@@ -56,25 +56,250 @@
     <t>Error Type</t>
   </si>
   <si>
-    <t>Every T1 record should have at least one corresponding T2 or T3 record with the same Item 4 (Reporting Year and Month) and Item 6 (Case Number).</t>
-  </si>
-  <si>
-    <t>blank,Stratum,ZIP Code,Child Care Amount,Amount of Subsidized Child Care,Other: Family Cap,Cash and Cash Equivalents: Number of Months,Record Type,Case Number,Cash Amount,Disposition,Type of Family for Work Participation,Other: Amount,TANF Child Care: Number of Months,Newly-Approved Applicant,Transportation and Other Supportive Services: Amount,Funding Stream,Other Sanction,Reporting Year and Month,Received Subsidized Child Care,TANF Child Care: Number of Children Covered,County FIPS Code,TANF Family a New Child-Only Family,Other: Number of Months,Sanction: Teen Parent not Attending School (or Alternative Training),Amount of Child Support,Failure to Comply with an Individual Responsibility Plan,Family Sanction,Transportation and Other Supportive Services: Number of Months,Work Requirements Sanction,Number of Family Members,Non-Sanction,Total Dollar Amount of Reductions Due to Sanctions,Sanction: Non-Cooperation with Child Support,Receives SNAP Assistance,Receives Subsidized Housing,Amount of the Family's Cash Resources,Transitional Services: Number of Months,Other: Total Dollar Amount of Reductions,Other: Reductions Based on Time Limit,Receives Medical Assistance,Recoupment of Prior Overpayment,Waiver Evaluation,Amount of SNAP Benefits,Federal Time Limit Exemptions,Transitional Services: Amount</t>
-  </si>
-  <si>
-    <t>BLANK,STRATUM,ZIP_CODE,CC_AMOUNT,AMT_SUB_CC,FAMILY_CAP,NBR_MONTHS,RecordType,CASE_NUMBER,CASH_AMOUNT,DISPOSITION,FAMILY_TYPE,OTHER_AMOUNT,CC_NBR_MONTHS,NEW_APPLICANT,TRANSP_AMOUNT,FUNDING_STREAM,OTHER_SANCTION,RPT_MONTH_YEAR,RECEIVES_SUB_CC,CHILDREN_COVERED,COUNTY_FIPS_CODE,FAMILY_NEW_CHILD,OTHER_NBR_MONTHS,SANC_TEEN_PARENT,CHILD_SUPPORT_AMT,FAILURE_TO_COMPLY,FAMILY_SANC_ADULT,TRANSP_NBR_MONTHS,WORK_REQ_SANCTION,NBR_FAMILY_MEMBERS,OTHER_NON_SANCTION,SANC_REDUCTION_AMT,NON_COOPERATION_CSE,RECEIVES_FOOD_STAMPS,RECEIVES_SUB_HOUSING,FAMILY_CASH_RESOURCES,TRANSITION_NBR_MONTHS,OTHER_TOTAL_REDUCTIONS,REDUCTIONS_ON_RECEIPTS,RECEIVES_MED_ASSISTANCE,RECOUPMENT_PRIOR_OVRPMT,WAIVER_EVAL_CONTROL_GRPS,AMT_FOOD_STAMP_ASSISTANCE,FAMILY_EXEMPT_TIME_LIMITS,TRANSITION_SERVICES_AMOUNT</t>
-  </si>
-  <si>
-    <t>Case consistency</t>
-  </si>
-  <si>
-    <t>No records created.</t>
-  </si>
-  <si>
-    <t>File pre-check</t>
+    <t>11111111301</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 48 (Work-Eligible Individual Indicator) 10 must be between 1 and 9 or must be one of ('11', '12').</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Family Affiliation,Work-Eligible Individual Indicator</t>
+  </si>
+  <si>
+    <t>FAMILY_AFFILIATION,WORK_ELIGIBLE_INDICATOR</t>
+  </si>
+  <si>
+    <t>Record value consistency</t>
+  </si>
+  <si>
+    <t>11111111342</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 2, then Item 41 (Educational Level) 99 must be between 0 and 16 or must match 98.</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Educational Level,Family Affiliation</t>
+  </si>
+  <si>
+    <t>EDUCATION_LEVEL,FAMILY_AFFILIATION</t>
+  </si>
+  <si>
+    <t>11111111375</t>
+  </si>
+  <si>
+    <t>11111111622</t>
+  </si>
+  <si>
+    <t>11111111627</t>
+  </si>
+  <si>
+    <t>11111111822</t>
+  </si>
+  <si>
+    <t>11111111832</t>
+  </si>
+  <si>
+    <t>11111112116</t>
+  </si>
+  <si>
+    <t>11111112121</t>
+  </si>
+  <si>
+    <t>11111112413</t>
+  </si>
+  <si>
+    <t>T1: No benefits detected for this case. The total sum of Amount of SNAP Benefits, Amount of Subsidized Child Care, Cash Amount, Child Care Amount, Transportation and Other Supportive Services: Amount must be greater than 0.</t>
+  </si>
+  <si>
+    <t>23A</t>
+  </si>
+  <si>
+    <t>Child Care Amount,Amount of Subsidized Child Care,Cash Amount,Transportation and Other Supportive Services: Amount,Amount of SNAP Benefits</t>
+  </si>
+  <si>
+    <t>CC_AMOUNT,AMT_SUB_CC,CASH_AMOUNT,TRANSP_AMOUNT,AMT_FOOD_STAMP_ASSISTANCE</t>
+  </si>
+  <si>
+    <t>11111112461</t>
+  </si>
+  <si>
+    <t>11111112841</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 2, then Item 48 (Work-Eligible Individual Indicator) 10 must be between 1 and 9 or must be one of ('11', '12').</t>
+  </si>
+  <si>
+    <t>11111112982</t>
+  </si>
+  <si>
+    <t>11111111239</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>11111111380</t>
+  </si>
+  <si>
+    <t>11111111439</t>
+  </si>
+  <si>
+    <t>11111111769</t>
+  </si>
+  <si>
+    <t>11111111916</t>
+  </si>
+  <si>
+    <t>11111112279</t>
+  </si>
+  <si>
+    <t>11111112633</t>
+  </si>
+  <si>
+    <t>11111111201</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>11111111621</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 42 (Citizenship/Immigration Status) 9 must be one of (1, 2, 3)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Citizenship/Immigration Status,Family Affiliation</t>
+  </si>
+  <si>
+    <t>CITIZENSHIP_STATUS,FAMILY_AFFILIATION</t>
+  </si>
+  <si>
+    <t>Since Item 67 (Family Affiliation) is 1, then Item 76 (Citizenship/Immigration Status) 9 must be one of (1, 2, 3)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>11111111708</t>
+  </si>
+  <si>
+    <t>11111111762</t>
+  </si>
+  <si>
+    <t>11111112018</t>
+  </si>
+  <si>
+    <t>11111112315</t>
+  </si>
+  <si>
+    <t>11111112383</t>
+  </si>
+  <si>
+    <t>11111112474</t>
+  </si>
+  <si>
+    <t>11111112591</t>
+  </si>
+  <si>
+    <t>11111112607</t>
+  </si>
+  <si>
+    <t>11111112707</t>
+  </si>
+  <si>
+    <t>11111112723</t>
+  </si>
+  <si>
+    <t>11111112765</t>
   </si>
   <si>
     <t>Number Of Occurrences</t>
+  </si>
+  <si>
+    <t>T1 Item 13 (Receives Subsidized Housing): 3 is not in range [1, 2].</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Receives Subsidized Housing</t>
+  </si>
+  <si>
+    <t>RECEIVES_SUB_HOUSING</t>
+  </si>
+  <si>
+    <t>Record value invalid</t>
+  </si>
+  <si>
+    <t>T2 Item 49 (Work Participation Status): 14 is not in [01, 02, 05, 07, 09, 15, 16, 17, 18, 99].</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Work Participation Status</t>
+  </si>
+  <si>
+    <t>WORK_PART_STATUS</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 49 (Work Participation Status) 14 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
+  </si>
+  <si>
+    <t>Work Participation Status,Family Affiliation</t>
+  </si>
+  <si>
+    <t>WORK_PART_STATUS,FAMILY_AFFILIATION</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 2, then Item 49 (Work Participation Status) 14 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
+  </si>
+  <si>
+    <t>T2 Item 49 (Work Participation Status): 19 is not in [01, 02, 05, 07, 09, 15, 16, 17, 18, 99].</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 49 (Work Participation Status) 08 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
+  </si>
+  <si>
+    <t>T2 Item 49 (Work Participation Status): 08 is not in [01, 02, 05, 07, 09, 15, 16, 17, 18, 99].</t>
+  </si>
+  <si>
+    <t>Item 48 (Work-Eligible Individual Indicator) 10 must be between 0 and 9 or must be one of ('11', '12').</t>
+  </si>
+  <si>
+    <t>Work-Eligible Individual Indicator</t>
+  </si>
+  <si>
+    <t>WORK_ELIGIBLE_INDICATOR</t>
+  </si>
+  <si>
+    <t>T2 Item 49 (Work Participation Status): 11 is not in [01, 02, 05, 07, 09, 15, 16, 17, 18, 99].</t>
+  </si>
+  <si>
+    <t>T2 Item 49 (Work Participation Status): 12 is not in [01, 02, 05, 07, 09, 15, 16, 17, 18, 99].</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 49 (Work Participation Status) 11 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 1, then Item 49 (Work Participation Status) 12 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
+  </si>
+  <si>
+    <t>Since Item 30 (Family Affiliation) is 2, then Item 49 (Work Participation Status) 11 must be one of ['01', '02', '05', '07', '09', '15', '17', '18', '19', '99']</t>
   </si>
 </sst>
 </file>
@@ -428,20 +653,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="202.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="131.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -494,31 +720,1018 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="F9" t="s">
         <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>139</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>249</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>255</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>351</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>358</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>472</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>479</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>629</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>650</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>767</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>858</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>933</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>989</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>1018</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>1169</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>1248</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>1249</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>1445</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>1602</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>1788</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>1991</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>1992</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>2044</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>2059</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>2180</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>2289</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>2311</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>2353</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>2424</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>2431</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>2483</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>2500</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>2525</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -533,18 +1746,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="130.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="202.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,34 +1805,1176 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="H8">
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
     </row>
